--- a/data/trans_orig/P19E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>163858</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>143191</v>
+        <v>141777</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>184689</v>
+        <v>183360</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3985376788492214</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3482708947772039</v>
+        <v>0.3448316427947363</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4492015467786448</v>
+        <v>0.4459706500302572</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>200</v>
@@ -763,19 +763,19 @@
         <v>194798</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>175939</v>
+        <v>173803</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>211582</v>
+        <v>213902</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5035024179929868</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4547569802882973</v>
+        <v>0.44923685946294</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5468852787668275</v>
+        <v>0.5528808364359704</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>352</v>
@@ -784,19 +784,19 @@
         <v>358656</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>330467</v>
+        <v>331834</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>385906</v>
+        <v>387625</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4494244265974141</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4141008931138705</v>
+        <v>0.415813932194024</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4835708480480516</v>
+        <v>0.4857240039758919</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>139689</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>121431</v>
+        <v>121852</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>158316</v>
+        <v>159391</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.339753344179844</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.295344777706372</v>
+        <v>0.2963703707401993</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3850565353980868</v>
+        <v>0.387671950741946</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>135</v>
@@ -834,19 +834,19 @@
         <v>134202</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>117351</v>
+        <v>116426</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>152427</v>
+        <v>153452</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.346878582396291</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3033207010587847</v>
+        <v>0.3009303489349164</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3939837064581664</v>
+        <v>0.3966344529161647</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>268</v>
@@ -855,19 +855,19 @@
         <v>273892</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>247465</v>
+        <v>247828</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>300341</v>
+        <v>298924</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3432076489561319</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3100934595911313</v>
+        <v>0.3105475759351647</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.376351189847933</v>
+        <v>0.3745754247119777</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>90352</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>74017</v>
+        <v>74897</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>109039</v>
+        <v>108504</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2197546850368135</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1800258662326959</v>
+        <v>0.1821652714510894</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2652046181160799</v>
+        <v>0.2639043564552539</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>49</v>
@@ -905,19 +905,19 @@
         <v>47058</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35243</v>
+        <v>35469</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>61147</v>
+        <v>61813</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1216324328441453</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09109419089328004</v>
+        <v>0.09167884705733574</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1580482095043754</v>
+        <v>0.1597698002900245</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>134</v>
@@ -926,19 +926,19 @@
         <v>137410</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>115650</v>
+        <v>118426</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>160115</v>
+        <v>160512</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1721851646765142</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1449184660070615</v>
+        <v>0.1483965587551669</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2006360497310326</v>
+        <v>0.2011334993678969</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>5039</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1935</v>
+        <v>1961</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11085</v>
+        <v>11099</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01225583865336126</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004706809538085746</v>
+        <v>0.004769546531131138</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02696185362837436</v>
+        <v>0.02699606599348296</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>2816</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>839</v>
+        <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7476</v>
+        <v>8217</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007279558729213277</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002167433477836744</v>
+        <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01932461258819048</v>
+        <v>0.02123860898245008</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -997,19 +997,19 @@
         <v>7855</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3860</v>
+        <v>3385</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15735</v>
+        <v>14917</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009843345626748955</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004837426038034485</v>
+        <v>0.004241136312922411</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01971663867462267</v>
+        <v>0.01869264958845994</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>12210</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6567</v>
+        <v>5617</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20473</v>
+        <v>21606</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02969845328075984</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01597148617321748</v>
+        <v>0.01366195446687568</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0497935419825875</v>
+        <v>0.052550114584228</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1047,19 +1047,19 @@
         <v>8011</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3904</v>
+        <v>3673</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15156</v>
+        <v>15781</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02070700803736361</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01009003320888402</v>
+        <v>0.009492943791281277</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03917319562642192</v>
+        <v>0.04078987552811867</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -1068,19 +1068,19 @@
         <v>20222</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12511</v>
+        <v>12272</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>31148</v>
+        <v>31641</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02533941414319087</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01567738523139672</v>
+        <v>0.01537755907674119</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03903034601094538</v>
+        <v>0.03964817252144229</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>214259</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>191310</v>
+        <v>189980</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>240846</v>
+        <v>236513</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3703846676811592</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3307124216192945</v>
+        <v>0.3284148828848643</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4163454142410325</v>
+        <v>0.4088543910705235</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>279</v>
@@ -1193,19 +1193,19 @@
         <v>273502</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>251211</v>
+        <v>250543</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>295433</v>
+        <v>298014</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4927841096965306</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4526223327729006</v>
+        <v>0.4514189240447196</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5322998212384783</v>
+        <v>0.5369494618484759</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>484</v>
@@ -1214,19 +1214,19 @@
         <v>487761</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>453180</v>
+        <v>453546</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>522011</v>
+        <v>517773</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4303175297934133</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3998094641712716</v>
+        <v>0.4001327272562165</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4605343257281464</v>
+        <v>0.4567951118126382</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>203716</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>179742</v>
+        <v>182149</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>226555</v>
+        <v>227486</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3521584108144296</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3107159549227489</v>
+        <v>0.3148763870958985</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3916407206736031</v>
+        <v>0.3932491978602817</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>188</v>
@@ -1264,19 +1264,19 @@
         <v>183264</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>161402</v>
+        <v>161981</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>203159</v>
+        <v>202866</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3301978853322373</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2908070703260391</v>
+        <v>0.2918508916009216</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3660441299100036</v>
+        <v>0.3655152309691758</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>386</v>
@@ -1285,19 +1285,19 @@
         <v>386980</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>352268</v>
+        <v>358021</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>417670</v>
+        <v>420610</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3414054439383911</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3107813520057705</v>
+        <v>0.3158572949846034</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.368481096556027</v>
+        <v>0.371075190363015</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>127575</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>108038</v>
+        <v>108668</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>149198</v>
+        <v>149942</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2205357534383579</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1867624866892361</v>
+        <v>0.187851537253429</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2579146527494946</v>
+        <v>0.259201063970963</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>96</v>
@@ -1335,19 +1335,19 @@
         <v>91594</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>75570</v>
+        <v>74441</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>108373</v>
+        <v>111351</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1650298914760049</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.136158645270217</v>
+        <v>0.1341248051918782</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1952627161085059</v>
+        <v>0.2006277655673218</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>217</v>
@@ -1356,19 +1356,19 @@
         <v>219169</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>192981</v>
+        <v>191089</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>246656</v>
+        <v>245295</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1933573193161358</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1702535469867628</v>
+        <v>0.1685848208373477</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2176073836299527</v>
+        <v>0.2164066113386728</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>2898</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7828</v>
+        <v>7775</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005010093060809859</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001623063167885136</v>
+        <v>0.001612307596071573</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01353244127533196</v>
+        <v>0.01344041375826853</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1406,19 +1406,19 @@
         <v>2993</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8943</v>
+        <v>8045</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005391813026715369</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001764327484490724</v>
+        <v>0.001755776728784187</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01611324712486051</v>
+        <v>0.01449548237397017</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1427,19 +1427,19 @@
         <v>5891</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2893</v>
+        <v>2004</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12818</v>
+        <v>12701</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005197002165176823</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002551994798165994</v>
+        <v>0.001767587770985125</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01130809193496826</v>
+        <v>0.01120488613863746</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>30029</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20606</v>
+        <v>20944</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>43065</v>
+        <v>42067</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05191107500524349</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03562168234516576</v>
+        <v>0.03620490716687338</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07444559882021523</v>
+        <v>0.07271996367216776</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1477,19 +1477,19 @@
         <v>3661</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9248</v>
+        <v>8217</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006596300468511927</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001651315175766776</v>
+        <v>0.001657141956655266</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01666292760606303</v>
+        <v>0.01480508686177864</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -1498,19 +1498,19 @@
         <v>33690</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24206</v>
+        <v>23533</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48117</v>
+        <v>47364</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02972270478688295</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02135548807908545</v>
+        <v>0.02076119556146133</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04245061907780712</v>
+        <v>0.0417858351270534</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>257184</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>232437</v>
+        <v>230573</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>283713</v>
+        <v>283321</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3905236710980464</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3529467292276132</v>
+        <v>0.350116360498043</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4308066986712019</v>
+        <v>0.4302120250064141</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>317</v>
@@ -1623,19 +1623,19 @@
         <v>316023</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>291708</v>
+        <v>289730</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>339803</v>
+        <v>339489</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4859028376360502</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4485163901554315</v>
+        <v>0.4454747855822854</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5224648339073008</v>
+        <v>0.5219819870435721</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>561</v>
@@ -1644,19 +1644,19 @@
         <v>573207</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>537954</v>
+        <v>537379</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>609795</v>
+        <v>608285</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4379152647764761</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4109826008606279</v>
+        <v>0.4105429669616112</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4658673997706653</v>
+        <v>0.4647138973395286</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>207389</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>184900</v>
+        <v>182627</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>230146</v>
+        <v>232468</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3149115895435773</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.280763258949875</v>
+        <v>0.2773114823070477</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.349468068643535</v>
+        <v>0.3529937136759723</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>218</v>
@@ -1694,19 +1694,19 @@
         <v>218190</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>195876</v>
+        <v>196886</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>242144</v>
+        <v>242566</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3354788572880187</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3011703309062466</v>
+        <v>0.3027225730263529</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3723086917941006</v>
+        <v>0.3729587190198571</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>416</v>
@@ -1715,19 +1715,19 @@
         <v>425579</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>391327</v>
+        <v>391043</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>460064</v>
+        <v>459571</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3251309658644185</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2989634606844998</v>
+        <v>0.298746525063447</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3514764621997412</v>
+        <v>0.3510997527970869</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>144794</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>124597</v>
+        <v>125411</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>167419</v>
+        <v>167030</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2198635918218646</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1891958593022318</v>
+        <v>0.1904319171515485</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2542189059889796</v>
+        <v>0.2536280921449481</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>113</v>
@@ -1765,19 +1765,19 @@
         <v>110460</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>92315</v>
+        <v>93353</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>128850</v>
+        <v>130131</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1698386455672058</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1419391532939435</v>
+        <v>0.1435359198079342</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1981143532079228</v>
+        <v>0.2000831278737482</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>251</v>
@@ -1786,19 +1786,19 @@
         <v>255254</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>226150</v>
+        <v>229791</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>281886</v>
+        <v>285969</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.195007409777734</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1727725193783858</v>
+        <v>0.1755542825201044</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2153534743297222</v>
+        <v>0.2184729772177344</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>12732</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6849</v>
+        <v>6935</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21226</v>
+        <v>20649</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01933282288181771</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01039969525214807</v>
+        <v>0.01053108330291595</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03223052170276484</v>
+        <v>0.03135429135881672</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5499</v>
+        <v>5321</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001360948811393125</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.008454479189022292</v>
+        <v>0.008181825461146996</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -1857,19 +1857,19 @@
         <v>13617</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7529</v>
+        <v>7940</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22300</v>
+        <v>22098</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01040303470584216</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005751606256324247</v>
+        <v>0.006065707217920401</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.017036523164134</v>
+        <v>0.01688225902682266</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>36463</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26112</v>
+        <v>25495</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>51849</v>
+        <v>50538</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05536832465469395</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03965004789034009</v>
+        <v>0.03871367797290889</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07873077663117785</v>
+        <v>0.07673936569652115</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1907,19 +1907,19 @@
         <v>4825</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1856</v>
+        <v>1884</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10760</v>
+        <v>10625</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00741871069733218</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002853605329614033</v>
+        <v>0.002897361819111848</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01654342607491891</v>
+        <v>0.01633646055379757</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>40</v>
@@ -1928,19 +1928,19 @@
         <v>41289</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>29355</v>
+        <v>29862</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>56415</v>
+        <v>55399</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03154332487552926</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02242631838784532</v>
+        <v>0.02281376878254224</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04309985139900823</v>
+        <v>0.04232355930766647</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>219957</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>195865</v>
+        <v>195159</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>243852</v>
+        <v>246251</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3497842337050919</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3114730145577255</v>
+        <v>0.3103490437746085</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3877829862476687</v>
+        <v>0.3915976949281947</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>259</v>
@@ -2053,19 +2053,19 @@
         <v>283261</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>259598</v>
+        <v>258866</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>310139</v>
+        <v>308492</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4418615164589074</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4049487337340977</v>
+        <v>0.4038069174055785</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4837885187117486</v>
+        <v>0.481219990033576</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>457</v>
@@ -2074,19 +2074,19 @@
         <v>503218</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>469517</v>
+        <v>469393</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>542526</v>
+        <v>542010</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3962661630238097</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3697274561967667</v>
+        <v>0.3696304816494618</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4272199283878582</v>
+        <v>0.4268134295252321</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>187138</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>164079</v>
+        <v>163730</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>210571</v>
+        <v>212446</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2975938115258686</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2609249475353402</v>
+        <v>0.2603705677370353</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3348578374145789</v>
+        <v>0.3378400101164701</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>204</v>
@@ -2124,19 +2124,19 @@
         <v>220086</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>197123</v>
+        <v>196102</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>244753</v>
+        <v>244234</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3433134771153845</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3074938786460524</v>
+        <v>0.3059016769241267</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3817929950971092</v>
+        <v>0.3809825707181863</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>375</v>
@@ -2145,19 +2145,19 @@
         <v>407223</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>370766</v>
+        <v>371354</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>440094</v>
+        <v>441143</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3206737526454302</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2919650265633046</v>
+        <v>0.2924278732942869</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3465585607405596</v>
+        <v>0.347384320150133</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>156631</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>133715</v>
+        <v>134557</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>179274</v>
+        <v>181561</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2490806091679059</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2126392028532847</v>
+        <v>0.213977239478911</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2850881057334999</v>
+        <v>0.2887249420382234</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>113</v>
@@ -2195,19 +2195,19 @@
         <v>118210</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>97242</v>
+        <v>101249</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>137990</v>
+        <v>139960</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1843966717456185</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1516888854480919</v>
+        <v>0.1579395074972156</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2152515117175136</v>
+        <v>0.2183241253085198</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>255</v>
@@ -2216,19 +2216,19 @@
         <v>274841</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>245019</v>
+        <v>246337</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>306266</v>
+        <v>305737</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2164272323805187</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1929437779806367</v>
+        <v>0.1939815502801805</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2411736239778311</v>
+        <v>0.2407568912110168</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>15178</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8184</v>
+        <v>8204</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26573</v>
+        <v>25461</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02413704634560817</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0130142399236998</v>
+        <v>0.01304653117601823</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04225755724405427</v>
+        <v>0.04048887777277183</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2266,19 +2266,19 @@
         <v>3932</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1019</v>
+        <v>1077</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9622</v>
+        <v>11051</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.006132930903248378</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001589414882710956</v>
+        <v>0.001679988076375189</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01500940852466859</v>
+        <v>0.0172379963568965</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -2287,19 +2287,19 @@
         <v>19110</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11469</v>
+        <v>11873</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>28953</v>
+        <v>30201</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01504831135681286</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009031078275401781</v>
+        <v>0.009349544892289056</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02279965806045349</v>
+        <v>0.02378211937421604</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>49932</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37208</v>
+        <v>37362</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>65944</v>
+        <v>65083</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07940429925552539</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05916960428042178</v>
+        <v>0.05941456575905778</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.104866850125613</v>
+        <v>0.1034976200447837</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -2337,19 +2337,19 @@
         <v>15575</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9335</v>
+        <v>8967</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24421</v>
+        <v>23819</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02429540377684124</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01456155889779052</v>
+        <v>0.01398782855252414</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03809386961434135</v>
+        <v>0.03715530367831823</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>58</v>
@@ -2358,19 +2358,19 @@
         <v>65507</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>49990</v>
+        <v>49537</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>83649</v>
+        <v>84533</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05158454059342853</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03936572192067737</v>
+        <v>0.03900855601324715</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06587065533110398</v>
+        <v>0.06656700853348184</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>159978</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>139785</v>
+        <v>139933</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>181221</v>
+        <v>182565</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3487412855835582</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3047233142339349</v>
+        <v>0.305045965999491</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3950491639181039</v>
+        <v>0.3979790619261104</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>155</v>
@@ -2483,19 +2483,19 @@
         <v>181043</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>158926</v>
+        <v>157763</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>205100</v>
+        <v>203646</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.375345542374236</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3294922965366782</v>
+        <v>0.3270811546782412</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4252227202259618</v>
+        <v>0.4222070994761945</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>297</v>
@@ -2504,19 +2504,19 @@
         <v>341020</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>309444</v>
+        <v>310769</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>375346</v>
+        <v>373854</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3623771105159047</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3288229342012106</v>
+        <v>0.3302313275341465</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3988528938255645</v>
+        <v>0.3972670604386576</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>117455</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>99643</v>
+        <v>99759</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>138090</v>
+        <v>137175</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2560436120474653</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2172158881487109</v>
+        <v>0.2174678623372538</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3010280207653817</v>
+        <v>0.2990321305007762</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>150</v>
@@ -2554,19 +2554,19 @@
         <v>170344</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>148863</v>
+        <v>149923</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>191981</v>
+        <v>194455</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3531652939743944</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3086294313807535</v>
+        <v>0.3108276423796141</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3980227803553982</v>
+        <v>0.4031522366525714</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>257</v>
@@ -2575,19 +2575,19 @@
         <v>287799</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>259257</v>
+        <v>259682</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>316945</v>
+        <v>320603</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3058226478728411</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2754930971832845</v>
+        <v>0.2759443304882127</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3367941969812161</v>
+        <v>0.3406814157078991</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>117880</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>99087</v>
+        <v>98885</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>138045</v>
+        <v>137730</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2569705452026902</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2160031158876223</v>
+        <v>0.2155628971856499</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3009284173350357</v>
+        <v>0.3002419968175554</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>85</v>
@@ -2625,19 +2625,19 @@
         <v>95994</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>78949</v>
+        <v>80252</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>113663</v>
+        <v>116655</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1990182620795294</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1636796095641323</v>
+        <v>0.1663821621366138</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2356515994197704</v>
+        <v>0.2418545673967573</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>189</v>
@@ -2646,19 +2646,19 @@
         <v>213873</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>186031</v>
+        <v>186393</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>241816</v>
+        <v>240356</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2272675095826875</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1976811798201797</v>
+        <v>0.1980661833230605</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2569602011138737</v>
+        <v>0.2554089588106956</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>11505</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5424</v>
+        <v>5406</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>21601</v>
+        <v>21598</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02507933501723135</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01182462812108206</v>
+        <v>0.01178555941827768</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04708883357699934</v>
+        <v>0.04708196412633669</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -2696,19 +2696,19 @@
         <v>7258</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2928</v>
+        <v>2968</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>15996</v>
+        <v>15509</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01504797434056475</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006070867550883107</v>
+        <v>0.006154125369751099</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03316340690774444</v>
+        <v>0.0321546990629115</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>15</v>
@@ -2717,19 +2717,19 @@
         <v>18763</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>11164</v>
+        <v>11371</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>31302</v>
+        <v>31658</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01993783156925</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01186325410055344</v>
+        <v>0.01208332909549435</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03326245848694698</v>
+        <v>0.03364028909555346</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>51912</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>39425</v>
+        <v>38316</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>67021</v>
+        <v>67077</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.113165222149055</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08594411349879878</v>
+        <v>0.08352576577755852</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1461013177633004</v>
+        <v>0.1462230614978273</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>25</v>
@@ -2767,19 +2767,19 @@
         <v>27697</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>18443</v>
+        <v>18688</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>39041</v>
+        <v>40373</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05742292723127549</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0382372841254108</v>
+        <v>0.03874524942013126</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08094058361656015</v>
+        <v>0.08370361121801634</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>70</v>
@@ -2788,19 +2788,19 @@
         <v>79609</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>62462</v>
+        <v>62806</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>100253</v>
+        <v>97633</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08459490045931667</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06637413695128155</v>
+        <v>0.06673903870115649</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1065319543194708</v>
+        <v>0.1037468504201748</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>87215</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>72404</v>
+        <v>72657</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>104265</v>
+        <v>104483</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2710390292218991</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2250105500041022</v>
+        <v>0.2257976462270452</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3240275261642959</v>
+        <v>0.3247047873768694</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>128</v>
@@ -2913,19 +2913,19 @@
         <v>138705</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>121173</v>
+        <v>121557</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>159241</v>
+        <v>156545</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3840709685239667</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3355247607541886</v>
+        <v>0.3365879588846558</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4409349098054867</v>
+        <v>0.4334685187043653</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>215</v>
@@ -2934,19 +2934,19 @@
         <v>225920</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>200851</v>
+        <v>199655</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>251129</v>
+        <v>250870</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3308127883350667</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2941042946374713</v>
+        <v>0.2923532405088535</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3677252266293149</v>
+        <v>0.36734599542528</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>79908</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>66309</v>
+        <v>64838</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>96141</v>
+        <v>96851</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2483309034806999</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2060687863893254</v>
+        <v>0.2015000175796653</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2987802950023227</v>
+        <v>0.3009873436158403</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>106</v>
@@ -2984,19 +2984,19 @@
         <v>112045</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>94256</v>
+        <v>95979</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>131086</v>
+        <v>131426</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3102498760403283</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2609929386253928</v>
+        <v>0.2657637315882192</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3629728574255738</v>
+        <v>0.3639160767798778</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>183</v>
@@ -3005,19 +3005,19 @@
         <v>191953</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>167276</v>
+        <v>170843</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>213052</v>
+        <v>218247</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2810750090243828</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2449407710087296</v>
+        <v>0.2501643102555208</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3119697289500648</v>
+        <v>0.3195770739099269</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>96666</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>81147</v>
+        <v>79527</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>113989</v>
+        <v>114217</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3004104365994514</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2521830176094892</v>
+        <v>0.2471473549106512</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3542451589889449</v>
+        <v>0.3549542115320792</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>72</v>
@@ -3055,19 +3055,19 @@
         <v>75833</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>60212</v>
+        <v>61415</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>91753</v>
+        <v>92785</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2099790796919554</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1667241028387636</v>
+        <v>0.1700564008548389</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2540618436955097</v>
+        <v>0.2569188541975997</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>165</v>
@@ -3076,19 +3076,19 @@
         <v>172499</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>152473</v>
+        <v>151455</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>199522</v>
+        <v>200467</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2525883592517378</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2232647886699718</v>
+        <v>0.2217739773816065</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2921576080350866</v>
+        <v>0.2935419411768772</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>25730</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>16663</v>
+        <v>17180</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>38222</v>
+        <v>37101</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.07996211880902307</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.051784721617768</v>
+        <v>0.05339042870959877</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1187843393728115</v>
+        <v>0.1152990042931128</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>10</v>
@@ -3126,19 +3126,19 @@
         <v>10137</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>5166</v>
+        <v>5104</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>18361</v>
+        <v>18189</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02806908321203061</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01430395844596518</v>
+        <v>0.0141334167476736</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05084172965369586</v>
+        <v>0.05036535281373885</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>33</v>
@@ -3147,19 +3147,19 @@
         <v>35867</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25829</v>
+        <v>24358</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>51626</v>
+        <v>49054</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05251994778569604</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03782070690185518</v>
+        <v>0.03566667955140541</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07559489335401305</v>
+        <v>0.0718290460805824</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>32261</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>22624</v>
+        <v>23319</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>43374</v>
+        <v>45022</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1002575118889265</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07030945576588747</v>
+        <v>0.0724695892226639</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1347951307208986</v>
+        <v>0.1399172403068884</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>23</v>
@@ -3197,19 +3197,19 @@
         <v>24425</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>16200</v>
+        <v>16314</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>34803</v>
+        <v>35588</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.06763099253171904</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.04485684013316546</v>
+        <v>0.0451736944643514</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.09636920435434455</v>
+        <v>0.09854127520583843</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>56</v>
@@ -3218,19 +3218,19 @@
         <v>56685</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>44055</v>
+        <v>44139</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>73427</v>
+        <v>74325</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.08300389560311672</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.06450876887103608</v>
+        <v>0.06463173904750587</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1075182402949521</v>
+        <v>0.108833326473796</v>
       </c>
     </row>
     <row r="39">
@@ -3322,19 +3322,19 @@
         <v>57369</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>46670</v>
+        <v>45554</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>69591</v>
+        <v>69602</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2386017057904853</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1941036871055567</v>
+        <v>0.1894643541628729</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.289437288658531</v>
+        <v>0.2894794000358701</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>82</v>
@@ -3343,19 +3343,19 @@
         <v>110828</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>90487</v>
+        <v>91986</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>133850</v>
+        <v>131621</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2925668837871013</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2388698917444374</v>
+        <v>0.2428263963152318</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3533405178074664</v>
+        <v>0.3474552351565541</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>151</v>
@@ -3364,19 +3364,19 @@
         <v>168197</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>148348</v>
+        <v>144871</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>196710</v>
+        <v>191450</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2716138037135621</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2395604668351238</v>
+        <v>0.2339459462304716</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3176581398850439</v>
+        <v>0.309164509314851</v>
       </c>
     </row>
     <row r="41">
@@ -3393,19 +3393,19 @@
         <v>55249</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>43716</v>
+        <v>43954</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>67168</v>
+        <v>67218</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2297853392737358</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1818169381664114</v>
+        <v>0.1828091382044798</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.279359107709842</v>
+        <v>0.2795667548381583</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>70</v>
@@ -3414,19 +3414,19 @@
         <v>92707</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>73658</v>
+        <v>75109</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>113589</v>
+        <v>113207</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2447296324635076</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1944445293326023</v>
+        <v>0.1982739594563277</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2998553876939301</v>
+        <v>0.2988449738875744</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>135</v>
@@ -3435,19 +3435,19 @@
         <v>147956</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>126404</v>
+        <v>126072</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>171367</v>
+        <v>171859</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2389272060939074</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2041234450815773</v>
+        <v>0.2035871445615227</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.276733416338749</v>
+        <v>0.2775277855288956</v>
       </c>
     </row>
     <row r="42">
@@ -3464,19 +3464,19 @@
         <v>71701</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>60059</v>
+        <v>59442</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>85574</v>
+        <v>86356</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2982128061242185</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2497907086418722</v>
+        <v>0.2472267538213315</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3559092973906057</v>
+        <v>0.3591642635747495</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>77</v>
@@ -3485,19 +3485,19 @@
         <v>101093</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>81333</v>
+        <v>83002</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>122664</v>
+        <v>122260</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2668679787795299</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2147050401566146</v>
+        <v>0.2191111389957171</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3238104839290006</v>
+        <v>0.3227429722751042</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>160</v>
@@ -3506,19 +3506,19 @@
         <v>172795</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>148554</v>
+        <v>147286</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>195880</v>
+        <v>197667</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2790382467491029</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2398937619739136</v>
+        <v>0.2378448441240439</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3163172031214267</v>
+        <v>0.3192028859460853</v>
       </c>
     </row>
     <row r="43">
@@ -3535,19 +3535,19 @@
         <v>25381</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>17259</v>
+        <v>17669</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>34775</v>
+        <v>35039</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.105561625225621</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.07178094958900035</v>
+        <v>0.07348662960200056</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.144632813527082</v>
+        <v>0.1457312269695957</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>26</v>
@@ -3556,19 +3556,19 @@
         <v>34787</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>23506</v>
+        <v>24593</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>49372</v>
+        <v>49694</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.09183021259802165</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.06205033184901833</v>
+        <v>0.06492085301820581</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1303337422315115</v>
+        <v>0.1311835999279526</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>55</v>
@@ -3577,19 +3577,19 @@
         <v>60167</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>45859</v>
+        <v>47340</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>77572</v>
+        <v>79710</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.09716171337296468</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.07405632548709197</v>
+        <v>0.07644641823153314</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.125267386521533</v>
+        <v>0.1287202548435667</v>
       </c>
     </row>
     <row r="44">
@@ -3606,19 +3606,19 @@
         <v>30737</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>22181</v>
+        <v>22002</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>40643</v>
+        <v>40124</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1278385235859394</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.09225461272970648</v>
+        <v>0.09150936997750103</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1690368160729634</v>
+        <v>0.1668791753171168</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>30</v>
@@ -3627,19 +3627,19 @@
         <v>39399</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>27323</v>
+        <v>27697</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>54883</v>
+        <v>54624</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1040052923718396</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.07212895654454063</v>
+        <v>0.07311632385515782</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1448798815311503</v>
+        <v>0.1441982387880046</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>67</v>
@@ -3648,19 +3648,19 @@
         <v>70136</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>56455</v>
+        <v>55614</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>86960</v>
+        <v>87615</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.113259030070463</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.09116640618225602</v>
+        <v>0.08980786471617246</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1404275932813678</v>
+        <v>0.1414853074982324</v>
       </c>
     </row>
     <row r="45">
@@ -3752,19 +3752,19 @@
         <v>1159819</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1103916</v>
+        <v>1104026</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1217128</v>
+        <v>1212076</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.3516768791810073</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.3347260257733845</v>
+        <v>0.3347593440824672</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3690537674932622</v>
+        <v>0.3675221725149477</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1420</v>
@@ -3773,19 +3773,19 @@
         <v>1498160</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1435587</v>
+        <v>1440842</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1557015</v>
+        <v>1556139</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.4335405397652995</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.4154329266520032</v>
+        <v>0.4169535347361967</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.4505718356250996</v>
+        <v>0.4503183655573297</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2517</v>
@@ -3794,19 +3794,19 @@
         <v>2657980</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2575636</v>
+        <v>2571407</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>2737114</v>
+        <v>2739367</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.3935643245691807</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.3813717611843505</v>
+        <v>0.380745550128183</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.4052816501405505</v>
+        <v>0.4056151813736849</v>
       </c>
     </row>
     <row r="47">
@@ -3823,19 +3823,19 @@
         <v>990542</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>935129</v>
+        <v>938444</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1042629</v>
+        <v>1041860</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3003492446485673</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2835469012925993</v>
+        <v>0.2845521843186458</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3161428891754341</v>
+        <v>0.3159098227666063</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1071</v>
@@ -3844,19 +3844,19 @@
         <v>1130839</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1072750</v>
+        <v>1073929</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1186590</v>
+        <v>1191032</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.327244282017195</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.3104344688229672</v>
+        <v>0.3107754942992269</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.343377563597331</v>
+        <v>0.3446631282953429</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2020</v>
@@ -3865,19 +3865,19 @@
         <v>2121381</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2039645</v>
+        <v>2044533</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2200559</v>
+        <v>2195488</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3141107158673053</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3020081039848773</v>
+        <v>0.3027318903890395</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3258345339179194</v>
+        <v>0.3250836538650297</v>
       </c>
     </row>
     <row r="48">
@@ -3894,19 +3894,19 @@
         <v>805598</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>756327</v>
+        <v>758485</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>854992</v>
+        <v>856483</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2442710768999066</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2293311075857061</v>
+        <v>0.2299856328327358</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2592482163777878</v>
+        <v>0.2597002206236445</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>605</v>
@@ -3915,19 +3915,19 @@
         <v>640242</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>596236</v>
+        <v>597474</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>688372</v>
+        <v>689079</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1852743864861112</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1725398529800754</v>
+        <v>0.1728980622291741</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1992025363436935</v>
+        <v>0.1994071112119154</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1371</v>
@@ -3936,19 +3936,19 @@
         <v>1445840</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1379631</v>
+        <v>1379086</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1512986</v>
+        <v>1514859</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2140840484900752</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2042805823589219</v>
+        <v>0.2041998998693369</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2240262473814086</v>
+        <v>0.2243036270591545</v>
       </c>
     </row>
     <row r="49">
@@ -3965,19 +3965,19 @@
         <v>98463</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>79158</v>
+        <v>81060</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>119366</v>
+        <v>119098</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.02985564039932224</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02400195843642251</v>
+        <v>0.02457876433001552</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.03619365158032341</v>
+        <v>0.03611249715532537</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>53</v>
@@ -3986,19 +3986,19 @@
         <v>62807</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>47322</v>
+        <v>47180</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>80244</v>
+        <v>82494</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.01817532455341282</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.0136941902761318</v>
+        <v>0.01365301756496276</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.02322116171842696</v>
+        <v>0.02387218698086458</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>148</v>
@@ -4007,19 +4007,19 @@
         <v>161270</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>136512</v>
+        <v>137517</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>189621</v>
+        <v>188558</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.02387913521228172</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.02021317896684708</v>
+        <v>0.02036196595868047</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.02807697288011263</v>
+        <v>0.02791953001344392</v>
       </c>
     </row>
     <row r="50">
@@ -4036,19 +4036,19 @@
         <v>243546</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>216547</v>
+        <v>214968</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>275631</v>
+        <v>276331</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.0738471588711965</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.06566075555279</v>
+        <v>0.06518203525085195</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.08357609963508965</v>
+        <v>0.08378812064053703</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>110</v>
@@ -4057,19 +4057,19 @@
         <v>123593</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>101150</v>
+        <v>103079</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>148198</v>
+        <v>149023</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.03576546717798144</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.02927091244660843</v>
+        <v>0.02982928355425029</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.04288576883462271</v>
+        <v>0.04312457485741483</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>341</v>
@@ -4078,19 +4078,19 @@
         <v>367138</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>328317</v>
+        <v>331602</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>403139</v>
+        <v>410295</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.05436177586115708</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.04861359440420511</v>
+        <v>0.0491000176504332</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.05969244372928324</v>
+        <v>0.06075188113146649</v>
       </c>
     </row>
     <row r="51">
@@ -4425,19 +4425,19 @@
         <v>131037</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>101763</v>
+        <v>100318</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>162738</v>
+        <v>163619</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3213314889277149</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2495468794446776</v>
+        <v>0.2460029752534558</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3990711883902354</v>
+        <v>0.4012313426274186</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -4446,19 +4446,19 @@
         <v>126456</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>102077</v>
+        <v>102527</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>150450</v>
+        <v>153183</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3488322897610855</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2815816794864107</v>
+        <v>0.2828245776346245</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4150197813642338</v>
+        <v>0.4225602343910617</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -4467,19 +4467,19 @@
         <v>257493</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>220978</v>
+        <v>219603</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>300148</v>
+        <v>301175</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3342735951535806</v>
+        <v>0.3342735951535805</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2868711667062006</v>
+        <v>0.2850855796974973</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3896485165085667</v>
+        <v>0.3909811441644475</v>
       </c>
     </row>
     <row r="5">
@@ -4496,19 +4496,19 @@
         <v>238546</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>208913</v>
+        <v>206807</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>270715</v>
+        <v>271412</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5849685062643919</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5123017948034199</v>
+        <v>0.507136017192105</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.663854203292623</v>
+        <v>0.665562662081111</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>117</v>
@@ -4517,19 +4517,19 @@
         <v>200111</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>174643</v>
+        <v>175295</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>225563</v>
+        <v>227310</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5520120084971857</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4817574576644799</v>
+        <v>0.483557587002566</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6222213349919307</v>
+        <v>0.6270417116667923</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>218</v>
@@ -4538,19 +4538,19 @@
         <v>438657</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>396026</v>
+        <v>390999</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>479592</v>
+        <v>478111</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5694589035615455</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5141162635510574</v>
+        <v>0.5075900715813159</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.622600689340146</v>
+        <v>0.6206773581892062</v>
       </c>
     </row>
     <row r="6">
@@ -4567,19 +4567,19 @@
         <v>38210</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23716</v>
+        <v>24131</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57833</v>
+        <v>57342</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09370000480789333</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05815595239563592</v>
+        <v>0.05917421139079694</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1418201542879117</v>
+        <v>0.1406161202271652</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -4588,19 +4588,19 @@
         <v>32039</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19441</v>
+        <v>19129</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49229</v>
+        <v>49255</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.08838129545201157</v>
+        <v>0.08838129545201155</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05362775980442779</v>
+        <v>0.05276819133222439</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1358007388301426</v>
+        <v>0.1358708753147863</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>39</v>
@@ -4609,19 +4609,19 @@
         <v>70249</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46885</v>
+        <v>50035</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>93264</v>
+        <v>95646</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09119697582755906</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06086549903952621</v>
+        <v>0.06495462385039108</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1210736955066989</v>
+        <v>0.1241667977244031</v>
       </c>
     </row>
     <row r="7">
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8504</v>
+        <v>9700</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006750814925645549</v>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02345906791158914</v>
+        <v>0.02675671459452026</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8368</v>
+        <v>8310</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003176989805069458</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01086331028943883</v>
+        <v>0.01078838396330482</v>
       </c>
     </row>
     <row r="8">
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7471</v>
+        <v>7254</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004023591364071643</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02060982800186763</v>
+        <v>0.02000984308017243</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8802</v>
+        <v>7518</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.001893535652245533</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01142653149235606</v>
+        <v>0.009759843269090509</v>
       </c>
     </row>
     <row r="9">
@@ -4839,19 +4839,19 @@
         <v>104058</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>82431</v>
+        <v>83798</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>131346</v>
+        <v>132639</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2182002368547847</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1728504283183036</v>
+        <v>0.175717471103551</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2754222738450661</v>
+        <v>0.2781339315273249</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>172</v>
@@ -4860,19 +4860,19 @@
         <v>194198</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>170864</v>
+        <v>172344</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>216709</v>
+        <v>216360</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3875561514401128</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3409885065857253</v>
+        <v>0.3439421813854916</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4324815194376119</v>
+        <v>0.4317839278077324</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>234</v>
@@ -4881,19 +4881,19 @@
         <v>298255</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>263430</v>
+        <v>264371</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>331897</v>
+        <v>335073</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3049729332155106</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2693637024236365</v>
+        <v>0.2703250906787683</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3393719285650893</v>
+        <v>0.3426200340289371</v>
       </c>
     </row>
     <row r="11">
@@ -4910,19 +4910,19 @@
         <v>258860</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>229068</v>
+        <v>229206</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>285743</v>
+        <v>284325</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5428084768638377</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4803375403320769</v>
+        <v>0.4806273687002746</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5991799723641779</v>
+        <v>0.5962066958123464</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>245</v>
@@ -4931,19 +4931,19 @@
         <v>262276</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>239638</v>
+        <v>237044</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>286451</v>
+        <v>286035</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5234175577152906</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4782401519967842</v>
+        <v>0.4730637294684963</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5716633723198101</v>
+        <v>0.5708327457250877</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>415</v>
@@ -4952,19 +4952,19 @@
         <v>521136</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>485786</v>
+        <v>479313</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>559250</v>
+        <v>557133</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5328731737859844</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4967269785644192</v>
+        <v>0.4901084593291052</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5718465170038787</v>
+        <v>0.569681655927608</v>
       </c>
     </row>
     <row r="12">
@@ -4981,19 +4981,19 @@
         <v>93380</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>71741</v>
+        <v>72966</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>117480</v>
+        <v>116681</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1958094048944989</v>
+        <v>0.1958094048944988</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1504350901044212</v>
+        <v>0.1530030685116799</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2463471441046819</v>
+        <v>0.2446696822966082</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>32</v>
@@ -5002,19 +5002,19 @@
         <v>32215</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23447</v>
+        <v>22682</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>44844</v>
+        <v>45762</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06429159993816388</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04679358617043971</v>
+        <v>0.04526686029692159</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08949402928782885</v>
+        <v>0.09132534423533809</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>88</v>
@@ -5023,19 +5023,19 @@
         <v>125595</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>101479</v>
+        <v>101421</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>154455</v>
+        <v>155467</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1284237775106064</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1037646324010008</v>
+        <v>0.1037054204294429</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1579336596199984</v>
+        <v>0.15896862943647</v>
       </c>
     </row>
     <row r="13">
@@ -5052,19 +5052,19 @@
         <v>3777</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10618</v>
+        <v>11693</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007920138199856585</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001978805504917146</v>
+        <v>0.001968156934544067</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02226417825400056</v>
+        <v>0.02451862085347084</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -5073,7 +5073,7 @@
         <v>3519</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>9709</v>
@@ -5082,10 +5082,10 @@
         <v>0.007022591402396921</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00212952835445271</v>
+        <v>0.002124698730811333</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01937576095934292</v>
+        <v>0.01937694570433273</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -5094,19 +5094,19 @@
         <v>7296</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2891</v>
+        <v>3228</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15499</v>
+        <v>16387</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007460263173252366</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002956311233003448</v>
+        <v>0.003301154504037282</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01584809403693855</v>
+        <v>0.01675651937490794</v>
       </c>
     </row>
     <row r="14">
@@ -5123,19 +5123,19 @@
         <v>16816</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8628</v>
+        <v>8728</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29489</v>
+        <v>28452</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03526174318702226</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01809273047129437</v>
+        <v>0.01830248776507819</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06183671827028835</v>
+        <v>0.05966179928216354</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -5144,19 +5144,19 @@
         <v>8875</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4081</v>
+        <v>4106</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16283</v>
+        <v>16897</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.01771209950403568</v>
+        <v>0.01771209950403569</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008143846228732828</v>
+        <v>0.00819359291764764</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03249518561360506</v>
+        <v>0.03372090321465002</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -5165,19 +5165,19 @@
         <v>25691</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15498</v>
+        <v>16689</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39436</v>
+        <v>40166</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02626985231464611</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01584701515547219</v>
+        <v>0.01706443109648952</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04032469326936462</v>
+        <v>0.04107082942681183</v>
       </c>
     </row>
     <row r="15">
@@ -5269,19 +5269,19 @@
         <v>174967</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>148632</v>
+        <v>148570</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>199537</v>
+        <v>199472</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2818246048990081</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2394050986131701</v>
+        <v>0.2393056843696805</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3213993695707884</v>
+        <v>0.3212948155437946</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>303</v>
@@ -5290,19 +5290,19 @@
         <v>226841</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>207065</v>
+        <v>206408</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>247211</v>
+        <v>247661</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3650612718153137</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3332345167522447</v>
+        <v>0.3321784841014157</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3978438941118405</v>
+        <v>0.3985681268146103</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>449</v>
@@ -5311,19 +5311,19 @@
         <v>401808</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>368322</v>
+        <v>368271</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>439118</v>
+        <v>432572</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3234610757747039</v>
+        <v>0.3234610757747038</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2965041014394725</v>
+        <v>0.2964632522081243</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3534960671699975</v>
+        <v>0.3482266443220786</v>
       </c>
     </row>
     <row r="17">
@@ -5340,19 +5340,19 @@
         <v>322022</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>294552</v>
+        <v>297570</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>347901</v>
+        <v>349174</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5186899116119921</v>
+        <v>0.518689911611992</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4744428404946868</v>
+        <v>0.4793053055482248</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5603747543734761</v>
+        <v>0.5624250921063806</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>450</v>
@@ -5361,19 +5361,19 @@
         <v>327318</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>304280</v>
+        <v>306661</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>348002</v>
+        <v>350432</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5267607765711541</v>
+        <v>0.5267607765711543</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4896864668920066</v>
+        <v>0.4935177458119028</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5600487095652682</v>
+        <v>0.5639590401774448</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>740</v>
@@ -5382,19 +5382,19 @@
         <v>649339</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>610146</v>
+        <v>615289</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>680950</v>
+        <v>683440</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5227271027473808</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4911760317370999</v>
+        <v>0.4953161742651763</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5481738517266477</v>
+        <v>0.550178912571739</v>
       </c>
     </row>
     <row r="18">
@@ -5411,19 +5411,19 @@
         <v>105209</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>86175</v>
+        <v>85666</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>126845</v>
+        <v>125342</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1694627289218702</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.138805237849505</v>
+        <v>0.1379848364110891</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.204313138397237</v>
+        <v>0.2018920337483756</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>84</v>
@@ -5432,19 +5432,19 @@
         <v>61494</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>50236</v>
+        <v>50329</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>74554</v>
+        <v>74207</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.09896418800852207</v>
+        <v>0.09896418800852211</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08084672123646496</v>
+        <v>0.08099530929752664</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.119981058498134</v>
+        <v>0.1194232665774764</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>177</v>
@@ -5453,19 +5453,19 @@
         <v>166703</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>144806</v>
+        <v>145650</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>192568</v>
+        <v>194418</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.134198096707931</v>
+        <v>0.1341980967079311</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1165707192078236</v>
+        <v>0.1172504059526909</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1550195230022563</v>
+        <v>0.156509227958328</v>
       </c>
     </row>
     <row r="19">
@@ -5482,19 +5482,19 @@
         <v>2990</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9295</v>
+        <v>7550</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.00481613222531703</v>
+        <v>0.004816132225317031</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001269445064496618</v>
+        <v>0.001263796323969903</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01497209763301967</v>
+        <v>0.01216163205033337</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -5503,19 +5503,19 @@
         <v>1978</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5158</v>
+        <v>5606</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.003183461563800406</v>
+        <v>0.003183461563800407</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0008918658458336368</v>
+        <v>0.0008902111023510345</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.008301494602737295</v>
+        <v>0.009021869021542237</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -5524,19 +5524,19 @@
         <v>4968</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1885</v>
+        <v>1902</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11000</v>
+        <v>10459</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003999441132722075</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001517053616858931</v>
+        <v>0.001531464927648785</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.008855499428007646</v>
+        <v>0.008419651094759343</v>
       </c>
     </row>
     <row r="20">
@@ -5553,19 +5553,19 @@
         <v>15649</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8747</v>
+        <v>8306</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25240</v>
+        <v>25800</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02520662234181284</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01408875919393562</v>
+        <v>0.01337837181731615</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04065484198672692</v>
+        <v>0.0415566036168201</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -5574,19 +5574,19 @@
         <v>3747</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1417</v>
+        <v>1287</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8747</v>
+        <v>8361</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.006030302041209717</v>
+        <v>0.006030302041209718</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002280730443652412</v>
+        <v>0.00207046805534887</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01407735485731196</v>
+        <v>0.0134562950754244</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -5595,19 +5595,19 @@
         <v>19396</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12143</v>
+        <v>10887</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30335</v>
+        <v>29329</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01561428363726209</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009775152159188156</v>
+        <v>0.008764040119220374</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02442030125935942</v>
+        <v>0.02360991161040149</v>
       </c>
     </row>
     <row r="21">
@@ -5699,19 +5699,19 @@
         <v>155055</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>133888</v>
+        <v>133573</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>178514</v>
+        <v>177121</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.222459715180615</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1920914315859775</v>
+        <v>0.1916383502900306</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.256115594353331</v>
+        <v>0.2541174736242231</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>368</v>
@@ -5720,19 +5720,19 @@
         <v>249507</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>228245</v>
+        <v>230761</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>269405</v>
+        <v>269967</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.339336706947282</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.310419746717533</v>
+        <v>0.3138422531124069</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3663986246913415</v>
+        <v>0.3671628302285126</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>516</v>
@@ -5741,19 +5741,19 @@
         <v>404562</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>378431</v>
+        <v>378300</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>442722</v>
+        <v>438576</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2824598514067033</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2642155787931917</v>
+        <v>0.2641236421419255</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3091028114122412</v>
+        <v>0.306207618393261</v>
       </c>
     </row>
     <row r="23">
@@ -5770,19 +5770,19 @@
         <v>367749</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>340847</v>
+        <v>337981</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>394265</v>
+        <v>395060</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5276136619311278</v>
+        <v>0.5276136619311276</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4890179420361382</v>
+        <v>0.484905713514725</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5656570319184794</v>
+        <v>0.5667975940943262</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>607</v>
@@ -5791,19 +5791,19 @@
         <v>382129</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>361591</v>
+        <v>361830</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>404158</v>
+        <v>402670</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5197071745510545</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4917749399328639</v>
+        <v>0.4921000728606124</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5496668727073243</v>
+        <v>0.5476431386843142</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>954</v>
@@ -5812,19 +5812,19 @@
         <v>749878</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>712793</v>
+        <v>713889</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>782854</v>
+        <v>781205</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5235547764935105</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4976626871518846</v>
+        <v>0.4984279280215362</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.546577781445541</v>
+        <v>0.5454265872982714</v>
       </c>
     </row>
     <row r="24">
@@ -5841,19 +5841,19 @@
         <v>144219</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>123718</v>
+        <v>122552</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>166661</v>
+        <v>166132</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2069123480308791</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1774995110779321</v>
+        <v>0.1758261687567066</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2391109804329194</v>
+        <v>0.2383513505289985</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>139</v>
@@ -5862,19 +5862,19 @@
         <v>87596</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>74407</v>
+        <v>74554</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>102318</v>
+        <v>100772</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1191338068258913</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1011962340421078</v>
+        <v>0.1013962990503748</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1391554217763763</v>
+        <v>0.1370524322170524</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>276</v>
@@ -5883,19 +5883,19 @@
         <v>231815</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>204930</v>
+        <v>207039</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>256727</v>
+        <v>257107</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1618502331490977</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1430791921600261</v>
+        <v>0.1445517145775357</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1792433843493508</v>
+        <v>0.1795086915311415</v>
       </c>
     </row>
     <row r="25">
@@ -5912,19 +5912,19 @@
         <v>10167</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5217</v>
+        <v>4792</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20740</v>
+        <v>19311</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0145864279085461</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007484793278225921</v>
+        <v>0.006874985693330481</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02975596713745848</v>
+        <v>0.02770615181862892</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -5933,19 +5933,19 @@
         <v>2936</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1074</v>
+        <v>1122</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6633</v>
+        <v>6317</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003992977719674647</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001461001846572636</v>
+        <v>0.001525773101119011</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.009021165252797348</v>
+        <v>0.00859111963203359</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -5954,19 +5954,19 @@
         <v>13103</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7225</v>
+        <v>7245</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21790</v>
+        <v>24140</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009148159479243134</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005044405021731904</v>
+        <v>0.005058104623601223</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01521349969000992</v>
+        <v>0.01685404852933927</v>
       </c>
     </row>
     <row r="26">
@@ -5983,19 +5983,19 @@
         <v>19814</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11973</v>
+        <v>12188</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29699</v>
+        <v>30642</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.02842784694883206</v>
+        <v>0.02842784694883205</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01717782028624886</v>
+        <v>0.01748610229552859</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0426100085552401</v>
+        <v>0.04396267232066274</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>20</v>
@@ -6004,19 +6004,19 @@
         <v>13110</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8113</v>
+        <v>8283</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19478</v>
+        <v>20239</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01782933395609772</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01103399844735377</v>
+        <v>0.01126464265750989</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02649045402014522</v>
+        <v>0.02752603288147481</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>40</v>
@@ -6025,19 +6025,19 @@
         <v>32924</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>24287</v>
+        <v>23610</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>45279</v>
+        <v>45671</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.02298697947144556</v>
+        <v>0.02298697947144557</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01695718604242696</v>
+        <v>0.0164840149514329</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03161324786665142</v>
+        <v>0.03188681787360664</v>
       </c>
     </row>
     <row r="27">
@@ -6129,19 +6129,19 @@
         <v>132701</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>115220</v>
+        <v>113591</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>155244</v>
+        <v>153212</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.218954288496358</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1901116587338864</v>
+        <v>0.1874230583185464</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2561496870991945</v>
+        <v>0.2527967491292171</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>301</v>
@@ -6150,19 +6150,19 @@
         <v>186888</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>171314</v>
+        <v>170608</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>206105</v>
+        <v>205038</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3087099717814917</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2829845342757236</v>
+        <v>0.2818179433214357</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3404530860207657</v>
+        <v>0.3386903780998229</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>439</v>
@@ -6171,19 +6171,19 @@
         <v>319589</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>291521</v>
+        <v>294071</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>347788</v>
+        <v>347133</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2638068955383129</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2406380384996469</v>
+        <v>0.2427431034477568</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2870839003039523</v>
+        <v>0.2865430676225044</v>
       </c>
     </row>
     <row r="29">
@@ -6200,19 +6200,19 @@
         <v>292103</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>267508</v>
+        <v>270449</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>314756</v>
+        <v>317290</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4819655940420824</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4413840391581855</v>
+        <v>0.4462365167462853</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5193422610360499</v>
+        <v>0.5235231071757809</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>534</v>
@@ -6221,19 +6221,19 @@
         <v>323069</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>304309</v>
+        <v>303037</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>342185</v>
+        <v>341688</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5336597327053948</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5026705692084157</v>
+        <v>0.5005701222770498</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5652357088119501</v>
+        <v>0.5644144948542436</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>857</v>
@@ -6242,19 +6242,19 @@
         <v>615172</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>584822</v>
+        <v>583901</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>645781</v>
+        <v>644077</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.5077981296874539</v>
+        <v>0.5077981296874537</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4827454617490861</v>
+        <v>0.4819855767290118</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5330641820679415</v>
+        <v>0.5316575651829294</v>
       </c>
     </row>
     <row r="30">
@@ -6271,19 +6271,19 @@
         <v>152436</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>132972</v>
+        <v>133080</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>171043</v>
+        <v>172923</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2515173174312187</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2194024974840046</v>
+        <v>0.2195799202106952</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.282218379445665</v>
+        <v>0.2853211911241317</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>144</v>
@@ -6292,19 +6292,19 @@
         <v>85274</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>72807</v>
+        <v>72820</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>99099</v>
+        <v>99658</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1408589874034205</v>
+        <v>0.1408589874034204</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1202665315783553</v>
+        <v>0.1202867323076781</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1636962061830134</v>
+        <v>0.1646200381844504</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>313</v>
@@ -6313,19 +6313,19 @@
         <v>237710</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>215704</v>
+        <v>214262</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>261893</v>
+        <v>262917</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1962192637482173</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1780544126306663</v>
+        <v>0.1768644088010951</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2161812900640368</v>
+        <v>0.2170268933428489</v>
       </c>
     </row>
     <row r="31">
@@ -6342,19 +6342,19 @@
         <v>8973</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4244</v>
+        <v>4276</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16115</v>
+        <v>16798</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01480541584190184</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.007001874840925033</v>
+        <v>0.007055248658800793</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02658994879149911</v>
+        <v>0.02771589503727731</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -6363,19 +6363,19 @@
         <v>3936</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1741</v>
+        <v>1629</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7804</v>
+        <v>7736</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.006501229247655085</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.002875262214153437</v>
+        <v>0.002690742293353219</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01289127288230124</v>
+        <v>0.01277862944661597</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>16</v>
@@ -6384,19 +6384,19 @@
         <v>12909</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7200</v>
+        <v>7256</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>21181</v>
+        <v>20595</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01065565724743397</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.005943562294321878</v>
+        <v>0.005989506580176342</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01748422781425504</v>
+        <v>0.01700037569223521</v>
       </c>
     </row>
     <row r="32">
@@ -6413,19 +6413,19 @@
         <v>19853</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12410</v>
+        <v>12887</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30339</v>
+        <v>30672</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03275738418843901</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02047698338030445</v>
+        <v>0.02126267640508978</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05005959121043801</v>
+        <v>0.05060788908813411</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -6434,19 +6434,19 @@
         <v>6217</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3215</v>
+        <v>3204</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10571</v>
+        <v>11055</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01027007886203801</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005311306002046128</v>
+        <v>0.005292620684352186</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01746091498553884</v>
+        <v>0.01826092271184672</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>32</v>
@@ -6455,19 +6455,19 @@
         <v>26070</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>18082</v>
+        <v>18476</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>36306</v>
+        <v>37436</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.02152005377858205</v>
+        <v>0.02152005377858204</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01492632599721851</v>
+        <v>0.01525132316344283</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02996875014764245</v>
+        <v>0.03090215674337997</v>
       </c>
     </row>
     <row r="33">
@@ -6559,19 +6559,19 @@
         <v>75532</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>63053</v>
+        <v>63035</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>89078</v>
+        <v>89249</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1865971674770255</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1557681892855803</v>
+        <v>0.1557222598623037</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2200612883978164</v>
+        <v>0.2204828524915232</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>229</v>
@@ -6580,19 +6580,19 @@
         <v>123921</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>110382</v>
+        <v>109258</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>138234</v>
+        <v>138230</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.2843273351578127</v>
+        <v>0.2843273351578126</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2532621409300321</v>
+        <v>0.2506844445011737</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3171678433718659</v>
+        <v>0.3171574876296012</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>332</v>
@@ -6601,19 +6601,19 @@
         <v>199453</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>180840</v>
+        <v>180672</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>219022</v>
+        <v>218542</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2372671304656001</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2151254742591579</v>
+        <v>0.2149249058257718</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2605459363658067</v>
+        <v>0.2599743182864743</v>
       </c>
     </row>
     <row r="35">
@@ -6630,19 +6630,19 @@
         <v>201155</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>182575</v>
+        <v>184448</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>217634</v>
+        <v>219250</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.4969375475815126</v>
+        <v>0.4969375475815125</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4510365128470745</v>
+        <v>0.4556636409858987</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5376471875720686</v>
+        <v>0.5416395354583877</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>408</v>
@@ -6651,19 +6651,19 @@
         <v>218225</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>202595</v>
+        <v>202462</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>233780</v>
+        <v>232211</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.50070179228046</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.4648381880193279</v>
+        <v>0.4645328897765176</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5363911716991295</v>
+        <v>0.5327899080068397</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>690</v>
@@ -6672,19 +6672,19 @@
         <v>419380</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>396181</v>
+        <v>397065</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>441107</v>
+        <v>442291</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.4988891879409009</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.471291198909381</v>
+        <v>0.4723435130042077</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5247355546067424</v>
+        <v>0.5261431252441471</v>
       </c>
     </row>
     <row r="36">
@@ -6701,19 +6701,19 @@
         <v>99323</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>84953</v>
+        <v>85846</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>114988</v>
+        <v>114455</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2453708645375347</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2098686932998263</v>
+        <v>0.2120749891309863</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2840678121411016</v>
+        <v>0.2827523477166904</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>151</v>
@@ -6722,19 +6722,19 @@
         <v>76328</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>65980</v>
+        <v>65190</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>88997</v>
+        <v>87226</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1751299648759738</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1513866342020862</v>
+        <v>0.1495739441463181</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2041965067217053</v>
+        <v>0.2001342611380212</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>292</v>
@@ -6743,19 +6743,19 @@
         <v>175652</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>157422</v>
+        <v>157788</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>191977</v>
+        <v>195870</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2089532069135301</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1872676199240512</v>
+        <v>0.1877019607038933</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2283738253014567</v>
+        <v>0.2330041449487847</v>
       </c>
     </row>
     <row r="37">
@@ -6772,19 +6772,19 @@
         <v>8038</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3664</v>
+        <v>4173</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14771</v>
+        <v>13937</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01985688778005266</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.009051402542532214</v>
+        <v>0.01030793289200793</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03649135353976588</v>
+        <v>0.03443151201951252</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>9</v>
@@ -6793,19 +6793,19 @@
         <v>4768</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2316</v>
+        <v>2191</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>8728</v>
+        <v>9006</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01094066180373303</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.005314229556244656</v>
+        <v>0.005027649591398987</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02002529109610994</v>
+        <v>0.02066253833075253</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>20</v>
@@ -6814,19 +6814,19 @@
         <v>12806</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>7719</v>
+        <v>7707</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>19996</v>
+        <v>19464</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01523411007549031</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.009182687732417651</v>
+        <v>0.009167856915963704</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02378669322541067</v>
+        <v>0.02315413691448256</v>
       </c>
     </row>
     <row r="38">
@@ -6843,19 +6843,19 @@
         <v>20740</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>14109</v>
+        <v>14282</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>28733</v>
+        <v>29827</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.05123753262387445</v>
+        <v>0.05123753262387444</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03485567302275618</v>
+        <v>0.03528323714765657</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.07098162141731128</v>
+        <v>0.07368429344725762</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>24</v>
@@ -6864,19 +6864,19 @@
         <v>12596</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>8207</v>
+        <v>8181</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>18050</v>
+        <v>18458</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02890024588202046</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.018829718401682</v>
+        <v>0.01877012105436099</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04141401505498042</v>
+        <v>0.04235101695711337</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>54</v>
@@ -6885,19 +6885,19 @@
         <v>33336</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>24973</v>
+        <v>25482</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>42907</v>
+        <v>43730</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03965636460447866</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0297075984606046</v>
+        <v>0.03031270496261569</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0510416883629868</v>
+        <v>0.05202039824954038</v>
       </c>
     </row>
     <row r="39">
@@ -6989,19 +6989,19 @@
         <v>43922</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>33672</v>
+        <v>33025</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>54673</v>
+        <v>55124</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.145559835285587</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1115909628796922</v>
+        <v>0.1094470549045374</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1811898741860722</v>
+        <v>0.1826842227297752</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>131</v>
@@ -7010,19 +7010,19 @@
         <v>71036</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>59630</v>
+        <v>59553</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>83350</v>
+        <v>82940</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.1574484359785354</v>
+        <v>0.1574484359785353</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1321659279540606</v>
+        <v>0.1319958200711253</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1847402316218325</v>
+        <v>0.1838308971332593</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>193</v>
@@ -7031,19 +7031,19 @@
         <v>114959</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>100647</v>
+        <v>100914</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>129987</v>
+        <v>131464</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.1526838610401552</v>
+        <v>0.1526838610401551</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1336756216086608</v>
+        <v>0.1340298586674201</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.172644086671102</v>
+        <v>0.1746061835608144</v>
       </c>
     </row>
     <row r="41">
@@ -7060,19 +7060,19 @@
         <v>127399</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>111581</v>
+        <v>112018</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>141143</v>
+        <v>141649</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.422205723010921</v>
+        <v>0.4222057230109209</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3697834177333797</v>
+        <v>0.3712333193032881</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4677543235908325</v>
+        <v>0.4694302900585744</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>370</v>
@@ -7081,19 +7081,19 @@
         <v>198365</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>182726</v>
+        <v>182462</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>214057</v>
+        <v>214111</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.4396659071038674</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.4050021166916725</v>
+        <v>0.4044177676341305</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.474445029816155</v>
+        <v>0.474564907439798</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>550</v>
@@ -7102,19 +7102,19 @@
         <v>325764</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>303045</v>
+        <v>305662</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>344804</v>
+        <v>347149</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.4326684178536733</v>
+        <v>0.4326684178536732</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.402493272757443</v>
+        <v>0.4059697321714678</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4579567426566627</v>
+        <v>0.461071164560669</v>
       </c>
     </row>
     <row r="42">
@@ -7131,19 +7131,19 @@
         <v>94405</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>81803</v>
+        <v>81191</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>109061</v>
+        <v>108455</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3128633300644068</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.271098329134792</v>
+        <v>0.2690695150951167</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3614333885995501</v>
+        <v>0.3594240345602662</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>241</v>
@@ -7152,19 +7152,19 @@
         <v>123308</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>109868</v>
+        <v>109928</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>137561</v>
+        <v>137085</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.273305921667657</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2435163878875696</v>
+        <v>0.2436486890319691</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3048974311468449</v>
+        <v>0.3038422642248665</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>385</v>
@@ -7173,19 +7173,19 @@
         <v>217714</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>198774</v>
+        <v>199475</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>237492</v>
+        <v>236478</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.2891592791436312</v>
+        <v>0.2891592791436311</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2640047819390445</v>
+        <v>0.2649352330078836</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.315428740304158</v>
+        <v>0.3140809306737298</v>
       </c>
     </row>
     <row r="43">
@@ -7202,19 +7202,19 @@
         <v>17960</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>12010</v>
+        <v>12049</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>25461</v>
+        <v>25437</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.05952184636133915</v>
+        <v>0.05952184636133914</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03980073171245188</v>
+        <v>0.03992953811322287</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.08437821546486553</v>
+        <v>0.08429961970481241</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>41</v>
@@ -7223,19 +7223,19 @@
         <v>24138</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>17121</v>
+        <v>17734</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>32620</v>
+        <v>32943</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.05350093443725287</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03794802230862751</v>
+        <v>0.03930733230502539</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.07229935997586348</v>
+        <v>0.07301526255215986</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>68</v>
@@ -7244,19 +7244,19 @@
         <v>42099</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>33157</v>
+        <v>33156</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>52488</v>
+        <v>52848</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.05591392540234698</v>
+        <v>0.05591392540234697</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.04403796028128101</v>
+        <v>0.04403652003752086</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0697120894162392</v>
+        <v>0.0701913116517982</v>
       </c>
     </row>
     <row r="44">
@@ -7273,19 +7273,19 @@
         <v>18059</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>12362</v>
+        <v>12257</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>25209</v>
+        <v>24576</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.05984926527774621</v>
+        <v>0.05984926527774618</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04096969458072013</v>
+        <v>0.04062054804665366</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.08354283851049372</v>
+        <v>0.08144482097510218</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>71</v>
@@ -7294,19 +7294,19 @@
         <v>34325</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>27053</v>
+        <v>26851</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>42974</v>
+        <v>42805</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.07607880081268736</v>
+        <v>0.07607880081268738</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.05996102226717995</v>
+        <v>0.0595128404096486</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.09524902729092903</v>
+        <v>0.09487461348713359</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>105</v>
@@ -7315,19 +7315,19 @@
         <v>52384</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>42475</v>
+        <v>43531</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>61774</v>
+        <v>63414</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.06957451656019353</v>
+        <v>0.06957451656019351</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.05641326368343234</v>
+        <v>0.05781604412220562</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.08204626449353369</v>
+        <v>0.08422429729750343</v>
       </c>
     </row>
     <row r="45">
@@ -7419,19 +7419,19 @@
         <v>817272</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>757912</v>
+        <v>758862</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>876340</v>
+        <v>878208</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2325015550815581</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2156146601769081</v>
+        <v>0.2158847150647733</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2493054501978822</v>
+        <v>0.2498369163668153</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1572</v>
@@ -7440,19 +7440,19 @@
         <v>1178847</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1131446</v>
+        <v>1127372</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1235072</v>
+        <v>1230439</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.3175220029254342</v>
+        <v>0.3175220029254341</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.3047544835262478</v>
+        <v>0.3036572059103252</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3326661388589176</v>
+        <v>0.3314182030672327</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2282</v>
@@ -7461,19 +7461,19 @@
         <v>1996119</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1908886</v>
+        <v>1922456</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>2071664</v>
+        <v>2087191</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.2761735104468416</v>
+        <v>0.2761735104468415</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2641042760232118</v>
+        <v>0.2659817646854079</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2866254758802864</v>
+        <v>0.2887736661389677</v>
       </c>
     </row>
     <row r="47">
@@ -7490,19 +7490,19 @@
         <v>1807833</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1742694</v>
+        <v>1742445</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1875551</v>
+        <v>1878217</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.5143013244128906</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.4957701533280013</v>
+        <v>0.4956994211678862</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.5335659873297568</v>
+        <v>0.5343242609592428</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2731</v>
@@ -7511,19 +7511,19 @@
         <v>1911494</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1858322</v>
+        <v>1858327</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1962533</v>
+        <v>1971849</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.5148599596739342</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.5005380899966351</v>
+        <v>0.500539465666233</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.5286072314794968</v>
+        <v>0.5311166489317694</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>4424</v>
@@ -7532,19 +7532,19 @@
         <v>3719327</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>3634541</v>
+        <v>3628750</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>3811548</v>
+        <v>3793009</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.5145882753147556</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.5028576430105892</v>
+        <v>0.5020565073152384</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.5273475638117436</v>
+        <v>0.5247824951312224</v>
       </c>
     </row>
     <row r="48">
@@ -7561,19 +7561,19 @@
         <v>727182</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>677462</v>
+        <v>678953</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>780047</v>
+        <v>778636</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2068722937002406</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1927278061697827</v>
+        <v>0.1931519392303669</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2219116538934736</v>
+        <v>0.2215100795423177</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>810</v>
@@ -7582,19 +7582,19 @@
         <v>498256</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>462600</v>
+        <v>465277</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>531142</v>
+        <v>534011</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.1342049985451358</v>
+        <v>0.1342049985451357</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1246009975623118</v>
+        <v>0.1253221451105241</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1430628864498733</v>
+        <v>0.1438357090782774</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1570</v>
@@ -7603,19 +7603,19 @@
         <v>1225438</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1161589</v>
+        <v>1164512</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1288909</v>
+        <v>1286841</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1695457099076312</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1607119422976235</v>
+        <v>0.1611163096740754</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1783273212496557</v>
+        <v>0.1780411820269103</v>
       </c>
     </row>
     <row r="49">
@@ -7632,19 +7632,19 @@
         <v>51905</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>38582</v>
+        <v>37732</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>65381</v>
+        <v>65296</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.01476626111935018</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01097589013605416</v>
+        <v>0.01073430158901273</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.01859988316991398</v>
+        <v>0.01857575807470004</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>70</v>
@@ -7653,19 +7653,19 @@
         <v>43723</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>33152</v>
+        <v>33382</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>55343</v>
+        <v>54725</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.01177663866435037</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.008929443587258985</v>
+        <v>0.008991436173104455</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.01490668617616126</v>
+        <v>0.01474020577870284</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>132</v>
@@ -7674,19 +7674,19 @@
         <v>95628</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>80500</v>
+        <v>79444</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>113225</v>
+        <v>115526</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.01323059926711489</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01113758780462164</v>
+        <v>0.01099145098509039</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.0156652245333551</v>
+        <v>0.0159835963675026</v>
       </c>
     </row>
     <row r="50">
@@ -7703,19 +7703,19 @@
         <v>110932</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>92105</v>
+        <v>92783</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>130138</v>
+        <v>133335</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.03155856568596064</v>
+        <v>0.03155856568596065</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.02620246462987462</v>
+        <v>0.02639537164569443</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03702234537787837</v>
+        <v>0.03793176024972227</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>140</v>
@@ -7724,19 +7724,19 @@
         <v>80328</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>66165</v>
+        <v>68101</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>96297</v>
+        <v>95201</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.0216364001911455</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01782143500862895</v>
+        <v>0.01834288376306894</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.02593765013618625</v>
+        <v>0.02564222262717986</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>270</v>
@@ -7745,19 +7745,19 @@
         <v>191261</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>168880</v>
+        <v>169045</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>219318</v>
+        <v>218770</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.02646190506365678</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.02336547821182043</v>
+        <v>0.02338820058751319</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.03034381814959683</v>
+        <v>0.03026792078750733</v>
       </c>
     </row>
     <row r="51">
